--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2336677.87938574</v>
+        <v>2334790.297869339</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>26.88676736777978</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>310.2076895021003</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>51.04467479678593</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.8400357509148</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>15.45373134607536</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46.34216896083828</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113167</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>117.0343205662367</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>70.72832781742531</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>149.079966771951</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24.32276211751099</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>276.4348282950958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.5947476878507</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>21.65873182144001</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>137.1381469898895</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329014</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.3318138408822</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
         <v>228.2778626358874</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2669.990740141677</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2416.228954779769</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2085.166067436198</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.397412166084</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1358.931653905004</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1358.931653905004</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2414.382636290375</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.243304314563</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.232431292459</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.269914352047</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.004215745297</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>631.2159631470527</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2300583574451</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>206.306654296036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>206.306654296036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2449295548429</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2449295548429</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2449295548429</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286127</v>
+        <v>696.5850465240059</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286127</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850826</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155878</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805459</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>825.1124611285481</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1380.699785137461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1156.914369926967</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="U16" t="n">
-        <v>1156.914369926967</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="V16" t="n">
-        <v>902.2298817210802</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="W16" t="n">
-        <v>612.8127116841194</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="X16" t="n">
-        <v>612.8127116841194</v>
+        <v>1227.553505102318</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>1006.760925958788</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515098</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5653,34 +5653,34 @@
         <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,22 +5698,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5744,22 +5744,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,22 +5768,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>121.7855380436303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>121.7855380436303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>121.7855380436303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5941,19 +5941,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,19 +5978,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,10 +6008,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6178,19 +6178,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765184</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,58 +6218,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>234.1814830641755</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293932</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>643.8194987924326</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.237734772998</v>
+        <v>604.5641438163782</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264619</v>
+        <v>491.3888261698422</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264619</v>
+        <v>397.0330520388773</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>304.880823737855</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>213.7517415213155</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>213.7517415213155</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>119.0945983506293</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818942</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>764.1570481840261</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.1253343218668</v>
+        <v>730.451743365247</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,25 +7002,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,22 +7196,22 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7546,25 +7546,25 @@
         <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229671</v>
@@ -7792,13 +7792,13 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9802313004938</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>179.3674864281989</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>80.88648941736656</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>150.8192332409639</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>48.8408432116523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>86.09648334676103</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>10.08817004149523</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>10.83921495871849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338612</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.55725701427486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>33.36825177059053</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>868584.3643559307</v>
+        <v>868584.3643559306</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327927</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327927</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327928</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327927</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327926</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327926</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
         <v>569550.9922833786</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284555</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143907</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="H4" t="n">
-        <v>15045.66962143908</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>15045.66962143911</v>
       </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
-      </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563567</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275962</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275961</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241776</v>
+        <v>-254872.6766241775</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903667</v>
+        <v>335095.2025903665</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425942</v>
+        <v>-84849.8075402316</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626369</v>
+        <v>440310.2289366648</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626369</v>
+        <v>440310.2289366648</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626369</v>
+        <v>440310.2289366649</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626365</v>
+        <v>440310.2289366648</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700436</v>
+        <v>263887.0097440718</v>
       </c>
       <c r="K6" t="n">
-        <v>395549.8863146744</v>
+        <v>395531.3925767401</v>
       </c>
       <c r="L6" t="n">
-        <v>429206.7694213463</v>
+        <v>429206.7694213468</v>
       </c>
       <c r="M6" t="n">
         <v>304748.6609883761</v>
       </c>
       <c r="N6" t="n">
-        <v>439549.6762222135</v>
+        <v>439549.6762222137</v>
       </c>
       <c r="O6" t="n">
         <v>439549.6762222134</v>
       </c>
       <c r="P6" t="n">
-        <v>395387.0709193678</v>
+        <v>395387.0709193682</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108349</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.08019533676975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>189.561552989878</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>44.47535211858263</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>318.6864258816831</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>1.091280493946414</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29527,10 +29527,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
